--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -5,13 +5,33 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="1" r:id="rId4"/>
+    <sheet name="輸出摘要" sheetId="1" r:id="rId4"/>
+    <sheet name="2022" sheetId="2" r:id="rId5"/>
+    <sheet name="2023" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>此文件從 Numbers 輸出。已將每個表格轉換為不同的 Excel 工作表。每個 Numbers 工作表上的所有其他物件將放置在不同的工作表上。請注意，公式計算可能與 Excel 不同。</t>
+  </si>
+  <si>
+    <t>Numbers 工作表名稱</t>
+  </si>
+  <si>
+    <t>Numbers 表格名稱</t>
+  </si>
+  <si>
+    <t>Excel 工作表名稱</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>表格 1</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -45,6 +65,9 @@
   <si>
     <t>李○恩</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +77,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -63,6 +86,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -77,7 +111,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,18 +126,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,106 +159,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,38 +283,59 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -273,6 +355,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1339,116 +1424,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'2022'!R1C1" tooltip="" display="2022"/>
+    <hyperlink ref="D12" location="'2023'!R1C1" tooltip="" display="2023"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>44876</v>
       </c>
-      <c r="B2" s="4">
-        <v>44876.416666666664</v>
-      </c>
-      <c r="C2" s="5">
-        <v>44876.458333333336</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>6</v>
+      <c r="B2" s="9">
+        <v>44880.416666666664</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44880.458333333336</v>
+      </c>
+      <c r="D2" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>44876</v>
       </c>
-      <c r="B3" s="8">
-        <v>44876.5</v>
-      </c>
-      <c r="C3" s="9">
-        <v>44876.541666666664</v>
-      </c>
-      <c r="D3" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="10">
-        <v>6</v>
+      <c r="B3" s="12">
+        <v>44880.5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="D3" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>44876</v>
       </c>
-      <c r="B4" s="8">
-        <v>44876.541666666664</v>
-      </c>
-      <c r="C4" s="9">
-        <v>44876.625</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>6</v>
+      <c r="B4" s="12">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44880.625</v>
+      </c>
+      <c r="D4" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>44876</v>
       </c>
-      <c r="B5" s="8">
-        <v>44876.708333333336</v>
-      </c>
-      <c r="C5" s="9">
-        <v>44876.75</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>6</v>
+      <c r="B5" s="12">
+        <v>44880.708333333336</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44880.75</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="7">
-        <v>44876</v>
-      </c>
-      <c r="B6" s="8">
-        <v>44876.791666666664</v>
-      </c>
-      <c r="C6" s="9">
-        <v>44876.833333333336</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>6</v>
+      <c r="A6" s="8">
+        <v>44880</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44880.708333333336</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44880.75</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="22.35" customHeight="1">
+      <c r="A7" s="15">
+        <v>44880</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44880.791666666664</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1458,4 +1632,147 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="22.55" customHeight="1">
+      <c r="A2" s="8">
+        <v>44876</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44880.416666666664</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44880.458333333336</v>
+      </c>
+      <c r="D2" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="22.35" customHeight="1">
+      <c r="A3" s="8">
+        <v>44876</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44880.5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="D3" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="22.35" customHeight="1">
+      <c r="A4" s="8">
+        <v>44876</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44880.625</v>
+      </c>
+      <c r="D4" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="22.35" customHeight="1">
+      <c r="A5" s="8">
+        <v>44880</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44880.75</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="22.35" customHeight="1">
+      <c r="A6" s="15">
+        <v>44880</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44880.708333333336</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44880.770833333336</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="22.35" customHeight="1">
+      <c r="A7" s="17">
+        <v>44880</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44880.791666666664</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -5,33 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="輸出摘要" sheetId="1" r:id="rId4"/>
+    <sheet name="2023" sheetId="1" r:id="rId4"/>
     <sheet name="2022" sheetId="2" r:id="rId5"/>
-    <sheet name="2023" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>此文件從 Numbers 輸出。已將每個表格轉換為不同的 Excel 工作表。每個 Numbers 工作表上的所有其他物件將放置在不同的工作表上。請注意，公式計算可能與 Excel 不同。</t>
-  </si>
-  <si>
-    <t>Numbers 工作表名稱</t>
-  </si>
-  <si>
-    <t>Numbers 表格名稱</t>
-  </si>
-  <si>
-    <t>Excel 工作表名稱</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -65,9 +46,6 @@
   <si>
     <t>李○恩</t>
   </si>
-  <si>
-    <t>2023</t>
-  </si>
 </sst>
 </file>
 
@@ -77,7 +55,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -86,17 +64,6 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -111,7 +78,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,25 +93,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -159,121 +114,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,59 +238,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -355,9 +295,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1424,73 +1361,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
+    <row r="2" ht="22.55" customHeight="1">
+      <c r="A2" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44880.416666666664</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44880.458333333336</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="3" ht="22.35" customHeight="1">
+      <c r="A3" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44880.5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
+    <row r="4" ht="22.35" customHeight="1">
+      <c r="A4" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44880.625</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+    <row r="5" ht="22.35" customHeight="1">
+      <c r="A5" s="3">
+        <v>44880</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44880.541666666664</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44880.75</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="9">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>17</v>
+    <row r="6" ht="22.35" customHeight="1">
+      <c r="A6" s="10">
+        <v>44880</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44880.708333333336</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44880.770833333336</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="22.35" customHeight="1">
+      <c r="A7" s="11">
+        <v>44880</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44880.791666666664</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="D7" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'2022'!R1C1" tooltip="" display="2022"/>
-    <hyperlink ref="D12" location="'2023'!R1C1" tooltip="" display="2023"/>
-  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1502,127 +1510,127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="3">
         <v>44876</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="4">
         <v>44880.416666666664</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="5">
         <v>44880.458333333336</v>
       </c>
-      <c r="D2" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="11">
-        <v>12</v>
+      <c r="D2" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>44876</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>44880.5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>44880.541666666664</v>
       </c>
-      <c r="D3" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="14">
-        <v>12</v>
+      <c r="D3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>44876</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>44880.541666666664</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>44880.625</v>
       </c>
-      <c r="D4" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="14">
-        <v>12</v>
+      <c r="D4" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>44876</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>44880.708333333336</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>44880.75</v>
       </c>
-      <c r="D5" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="14">
-        <v>12</v>
+      <c r="D5" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>44880</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>44880.708333333336</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>44880.75</v>
       </c>
-      <c r="D6" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>12</v>
+      <c r="D6" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>44880</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>44880.791666666664</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>44880.833333333336</v>
       </c>
-      <c r="D7" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>12</v>
+      <c r="D7" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1632,147 +1640,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="16.3516" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" s="8">
-        <v>44876</v>
-      </c>
-      <c r="B2" s="9">
-        <v>44880.416666666664</v>
-      </c>
-      <c r="C2" s="10">
-        <v>44880.458333333336</v>
-      </c>
-      <c r="D2" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" s="8">
-        <v>44876</v>
-      </c>
-      <c r="B3" s="12">
-        <v>44880.5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>44880.541666666664</v>
-      </c>
-      <c r="D3" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="8">
-        <v>44876</v>
-      </c>
-      <c r="B4" s="12">
-        <v>44880.541666666664</v>
-      </c>
-      <c r="C4" s="13">
-        <v>44880.625</v>
-      </c>
-      <c r="D4" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="8">
-        <v>44880</v>
-      </c>
-      <c r="B5" s="12">
-        <v>44880.541666666664</v>
-      </c>
-      <c r="C5" s="13">
-        <v>44880.75</v>
-      </c>
-      <c r="D5" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="15">
-        <v>44880</v>
-      </c>
-      <c r="B6" s="12">
-        <v>44880.708333333336</v>
-      </c>
-      <c r="C6" s="13">
-        <v>44880.770833333336</v>
-      </c>
-      <c r="D6" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="17">
-        <v>44880</v>
-      </c>
-      <c r="B7" s="12">
-        <v>44880.791666666664</v>
-      </c>
-      <c r="C7" s="13">
-        <v>44880.833333333336</v>
-      </c>
-      <c r="D7" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -5,8 +5,8 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="1" r:id="rId4"/>
-    <sheet name="2022" sheetId="2" r:id="rId5"/>
+    <sheet name="2022" sheetId="1" r:id="rId4"/>
+    <sheet name="2023" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -272,10 +272,10 @@
     <xf numFmtId="59" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1361,14 +1361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
@@ -1444,10 +1441,10 @@
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" s="3">
-        <v>44880</v>
+        <v>44876</v>
       </c>
       <c r="B5" s="7">
-        <v>44880.541666666664</v>
+        <v>44880.708333333336</v>
       </c>
       <c r="C5" s="8">
         <v>44880.75</v>
@@ -1460,24 +1457,24 @@
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="3">
         <v>44880</v>
       </c>
       <c r="B6" s="7">
         <v>44880.708333333336</v>
       </c>
       <c r="C6" s="8">
-        <v>44880.770833333336</v>
+        <v>44880.75</v>
       </c>
       <c r="D6" t="s" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="3">
         <v>44880</v>
       </c>
       <c r="B7" s="7">
@@ -1493,9 +1490,60 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" ht="22.35" customHeight="1">
+      <c r="A8" s="3">
+        <v>44880</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44880.875</v>
+      </c>
+      <c r="D8" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="22.35" customHeight="1">
+      <c r="A9" s="3">
+        <v>44880</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44880.875</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44880.916666666664</v>
+      </c>
+      <c r="D9" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="22.35" customHeight="1">
+      <c r="A10" s="10">
+        <v>44880</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44880.916666666664</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44880.958333333336</v>
+      </c>
+      <c r="D10" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1504,14 +1552,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1584,10 +1635,10 @@
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" s="3">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="B5" s="7">
-        <v>44880.708333333336</v>
+        <v>44880.541666666664</v>
       </c>
       <c r="C5" s="8">
         <v>44880.75</v>
@@ -1600,24 +1651,24 @@
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>44880</v>
       </c>
       <c r="B6" s="7">
         <v>44880.708333333336</v>
       </c>
       <c r="C6" s="8">
-        <v>44880.75</v>
+        <v>44880.770833333336</v>
       </c>
       <c r="D6" t="s" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>44880</v>
       </c>
       <c r="B7" s="7">
@@ -1633,9 +1684,43 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" ht="22.35" customHeight="1">
+      <c r="A8" s="12">
+        <v>44880</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44880.791666666664</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="D8" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="22.35" customHeight="1">
+      <c r="A9" s="12">
+        <v>44880</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44880.791666666664</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44880.833333333336</v>
+      </c>
+      <c r="D9" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
